--- a/empirical-rule.xlsx
+++ b/empirical-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\empirical-rule-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D627E1-B78F-40C8-AD93-93A0D439BFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD791C2F-D65B-4041-AF92-FD614A336E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13986" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="18" r:id="rId1"/>
@@ -12750,7 +12750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6275A2-A016-4709-BD42-E898D7440F19}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -13788,7 +13790,7 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
